--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1127">
   <si>
     <t>anchor score</t>
   </si>
@@ -313,793 +313,793 @@
     <t>worth</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>expose</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>intentionally</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>italy</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>advertising</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>stocked</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>stuff</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>groceries</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>focused</t>
+  </si>
+  <si>
+    <t>programs</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>bottles</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>comedy</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>kimberly</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>expose</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>euro</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>intentionally</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>blog</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>etc</t>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>downtown</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>luck</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>italy</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>guide</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>advertising</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>stocked</t>
-  </si>
-  <si>
-    <t>ag</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>deliveries</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>stuff</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>nation</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>groceries</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>win</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>focused</t>
-  </si>
-  <si>
-    <t>programs</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>episode</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>bottles</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>comedy</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>kimberly</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>downtown</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>garden</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>chance</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>luck</t>
   </si>
   <si>
     <t>brad</t>
@@ -3760,10 +3760,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -4142,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -4342,7 +4342,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4392,7 +4392,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4442,7 +4442,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4492,7 +4492,7 @@
         <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4542,7 +4542,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K17">
         <v>0.9722222222222222</v>
@@ -4692,7 +4692,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K20">
         <v>0.9615384615384616</v>
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K23">
         <v>0.9444444444444444</v>
@@ -4942,7 +4942,7 @@
         <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K25">
         <v>0.9333333333333333</v>
@@ -4992,7 +4992,7 @@
         <v>9</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K26">
         <v>0.9230769230769231</v>
@@ -5042,7 +5042,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K27">
         <v>0.9230769230769231</v>
@@ -5092,7 +5092,7 @@
         <v>3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K28">
         <v>0.9230769230769231</v>
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K32">
         <v>0.9090909090909091</v>
@@ -5342,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K33">
         <v>0.9</v>
@@ -5442,7 +5442,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K35">
         <v>0.8976377952755905</v>
@@ -5492,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K36">
         <v>0.8936170212765957</v>
@@ -5542,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K37">
         <v>0.8888888888888888</v>
@@ -5742,7 +5742,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K41">
         <v>0.875</v>
@@ -5792,7 +5792,7 @@
         <v>3</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K42">
         <v>0.875</v>
@@ -5842,7 +5842,7 @@
         <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K43">
         <v>0.8666666666666667</v>
@@ -5942,7 +5942,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K45">
         <v>0.8571428571428571</v>
@@ -5992,7 +5992,7 @@
         <v>16</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K46">
         <v>0.8571428571428571</v>
@@ -6092,7 +6092,7 @@
         <v>6</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K48">
         <v>0.8461538461538461</v>
@@ -6192,7 +6192,7 @@
         <v>4</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K50">
         <v>0.8375</v>
@@ -6292,7 +6292,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K52">
         <v>0.8333333333333334</v>
@@ -6342,7 +6342,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K53">
         <v>0.8333333333333334</v>
@@ -6392,7 +6392,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K54">
         <v>0.8333333333333334</v>
@@ -6442,7 +6442,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K55">
         <v>0.8333333333333334</v>
@@ -6492,7 +6492,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K56">
         <v>0.8333333333333334</v>
@@ -6542,7 +6542,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K57">
         <v>0.8333333333333334</v>
@@ -6642,7 +6642,7 @@
         <v>2</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K59">
         <v>0.8245614035087719</v>
@@ -6692,7 +6692,7 @@
         <v>17</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K60">
         <v>0.8205128205128205</v>
@@ -6742,7 +6742,7 @@
         <v>5</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K61">
         <v>0.8181818181818182</v>
@@ -6792,7 +6792,7 @@
         <v>5</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K62">
         <v>0.8181818181818182</v>
@@ -6842,7 +6842,7 @@
         <v>5</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K63">
         <v>0.8181818181818182</v>
@@ -6892,7 +6892,7 @@
         <v>5</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K64">
         <v>0.8125</v>
@@ -6942,7 +6942,7 @@
         <v>54</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K65">
         <v>0.8014184397163121</v>
@@ -6992,7 +6992,7 @@
         <v>8</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K66">
         <v>0.8</v>
@@ -7092,7 +7092,7 @@
         <v>9</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K68">
         <v>0.8</v>
@@ -7242,7 +7242,7 @@
         <v>3</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K71">
         <v>0.7936507936507936</v>
@@ -7292,7 +7292,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K72">
         <v>0.7916666666666666</v>
@@ -7342,7 +7342,7 @@
         <v>3</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K73">
         <v>0.7857142857142857</v>
@@ -7442,7 +7442,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K75">
         <v>0.7777777777777778</v>
@@ -7542,7 +7542,7 @@
         <v>10</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K77">
         <v>0.7777777777777778</v>
@@ -7592,7 +7592,7 @@
         <v>10</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K78">
         <v>0.7777777777777778</v>
@@ -7692,7 +7692,7 @@
         <v>7</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K80">
         <v>0.75</v>
@@ -7742,7 +7742,7 @@
         <v>14</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K81">
         <v>0.75</v>
@@ -7792,7 +7792,7 @@
         <v>24</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K82">
         <v>0.75</v>
@@ -7842,7 +7842,7 @@
         <v>4</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K83">
         <v>0.75</v>
@@ -7942,7 +7942,7 @@
         <v>4</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K85">
         <v>0.75</v>
@@ -7992,7 +7992,7 @@
         <v>4</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K86">
         <v>0.75</v>
@@ -8042,28 +8042,28 @@
         <v>4</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="K87">
-        <v>0.748898678414097</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L87">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="M87">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="N87">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O87">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -8092,28 +8092,28 @@
         <v>4</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="K88">
-        <v>0.7333333333333333</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L88">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="M88">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="N88">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -8142,7 +8142,7 @@
         <v>17</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="K89">
         <v>0.7272727272727273</v>
@@ -8151,16 +8151,16 @@
         <v>8</v>
       </c>
       <c r="M89">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -8192,28 +8192,28 @@
         <v>13</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="K90">
-        <v>0.7272727272727273</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L90">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M90">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N90">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="O90">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -8242,7 +8242,7 @@
         <v>13</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K91">
         <v>0.7222222222222222</v>
@@ -8292,28 +8292,28 @@
         <v>9</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>104</v>
+        <v>336</v>
       </c>
       <c r="K92">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L92">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M92">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N92">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -8342,16 +8342,16 @@
         <v>9</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K93">
         <v>0.7142857142857143</v>
       </c>
       <c r="L93">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M93">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -8371,13 +8371,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1739130434782609</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C94">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>0.93</v>
@@ -8389,10 +8389,10 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K94">
         <v>0.7142857142857143</v>
@@ -8427,13 +8427,13 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E95">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F95">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -8442,7 +8442,7 @@
         <v>5</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K95">
         <v>0.7142857142857143</v>
@@ -8474,25 +8474,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E96">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F96">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K96">
         <v>0.7142857142857143</v>
@@ -8524,25 +8524,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F97">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K97">
         <v>0.7142857142857143</v>
@@ -8577,13 +8577,13 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E98">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F98">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
@@ -8592,7 +8592,7 @@
         <v>5</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K98">
         <v>0.7142857142857143</v>
@@ -8627,22 +8627,22 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>5</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K99">
         <v>0.7142857142857143</v>
@@ -8671,13 +8671,13 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1666666666666667</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K100">
-        <v>0.7142857142857143</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="M100">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -8721,13 +8721,13 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1578947368421053</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>96</v>
@@ -8792,7 +8792,7 @@
         <v>11</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K102">
         <v>0.7</v>
@@ -8821,25 +8821,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1538461538461539</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>47</v>
@@ -8871,28 +8871,28 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.1481481481481481</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D104">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E104">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K104">
         <v>0.6875</v>
@@ -8921,13 +8921,13 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1470588235294118</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -8939,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K105">
         <v>0.6666666666666666</v>
@@ -8977,22 +8977,22 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>6</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K106">
         <v>0.6666666666666666</v>
@@ -9042,7 +9042,7 @@
         <v>6</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K107">
         <v>0.6666666666666666</v>
@@ -9074,25 +9074,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E108">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F108">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K108">
         <v>0.6666666666666666</v>
@@ -9124,25 +9124,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="E109">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F109">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K109">
         <v>0.6666666666666666</v>
@@ -9177,22 +9177,22 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>6</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K110">
         <v>0.6666666666666666</v>
@@ -9221,13 +9221,13 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>59</v>
@@ -9277,22 +9277,22 @@
         <v>2</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
         <v>13</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K112">
         <v>0.6666666666666666</v>
@@ -9321,28 +9321,28 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.1333333333333333</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D113">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="E113">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K113">
         <v>0.6666666666666666</v>
@@ -9371,13 +9371,13 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.131578947368421</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -9389,10 +9389,10 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K114">
         <v>0.6521739130434783</v>
@@ -9421,28 +9421,28 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.1290322580645161</v>
+        <v>0.125</v>
       </c>
       <c r="C115">
         <v>4</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K115">
         <v>0.6515151515151515</v>
@@ -9474,25 +9474,25 @@
         <v>0.125</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E116">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F116">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K116">
         <v>0.6470588235294118</v>
@@ -9524,25 +9524,25 @@
         <v>0.125</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E117">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F117">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K117">
         <v>0.6461538461538462</v>
@@ -9571,28 +9571,28 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.125</v>
+        <v>0.1182170542635659</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D118">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="E118">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>7</v>
+        <v>455</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K118">
         <v>0.6428571428571429</v>
@@ -9621,28 +9621,28 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.1182170542635659</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C119">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>455</v>
+        <v>16</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K119">
         <v>0.6428571428571429</v>
@@ -9677,13 +9677,13 @@
         <v>2</v>
       </c>
       <c r="D120">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E120">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="F120">
-        <v>0.15</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
@@ -9724,46 +9724,46 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E121">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F121">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="K121">
-        <v>0.6257668711656442</v>
+        <v>0.625</v>
       </c>
       <c r="L121">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="M121">
-        <v>218</v>
+        <v>6</v>
       </c>
       <c r="N121">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="O121">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="P121" t="b">
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>122</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -9774,25 +9774,25 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E122">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F122">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K122">
         <v>0.625</v>
@@ -9821,28 +9821,28 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
+        <v>5</v>
+      </c>
+      <c r="E123">
+        <v>0.8</v>
+      </c>
+      <c r="F123">
+        <v>0.2</v>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123">
         <v>9</v>
       </c>
-      <c r="E123">
-        <v>0.78</v>
-      </c>
-      <c r="F123">
-        <v>0.22</v>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123">
-        <v>16</v>
-      </c>
       <c r="J123" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="K123">
         <v>0.625</v>
@@ -9851,13 +9851,13 @@
         <v>5</v>
       </c>
       <c r="M123">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N123">
-        <v>0.83</v>
+        <v>0.62</v>
       </c>
       <c r="O123">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="P123" t="b">
         <v>1</v>
@@ -9871,28 +9871,28 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.1029411764705882</v>
+        <v>0.1</v>
       </c>
       <c r="C124">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>218</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F124">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="K124">
         <v>0.625</v>
@@ -9901,16 +9901,16 @@
         <v>5</v>
       </c>
       <c r="M124">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N124">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="O124">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="P124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -9927,13 +9927,13 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E125">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F125">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
@@ -9942,28 +9942,28 @@
         <v>9</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>361</v>
+        <v>152</v>
       </c>
       <c r="K125">
-        <v>0.625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="N125">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q125">
-        <v>3</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -9977,13 +9977,13 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E126">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F126">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
@@ -9992,28 +9992,28 @@
         <v>9</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K126">
-        <v>0.6153846153846154</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="L126">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="M126">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="N126">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O126">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P126" t="b">
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -10027,43 +10027,43 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>9</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>126</v>
+        <v>361</v>
       </c>
       <c r="K127">
-        <v>0.6097560975609756</v>
+        <v>0.6</v>
       </c>
       <c r="L127">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="M127">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="N127">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O127">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -10071,25 +10071,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E128">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F128">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>58</v>
@@ -10121,7 +10121,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>362</v>
@@ -10171,25 +10171,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E130">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F130">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>363</v>
@@ -10227,16 +10227,16 @@
         <v>1</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
         <v>10</v>
@@ -10277,13 +10277,13 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E132">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="F132">
-        <v>0.17</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
@@ -10327,16 +10327,16 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>10</v>
@@ -10377,13 +10377,13 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E134">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="F134">
-        <v>0.02000000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
@@ -10392,7 +10392,7 @@
         <v>10</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K134">
         <v>0.5921052631578947</v>
@@ -10427,22 +10427,22 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>10</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K135">
         <v>0.5909090909090909</v>
@@ -10474,22 +10474,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E136">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="F136">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>98</v>
@@ -10527,16 +10527,16 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
         <v>10</v>
@@ -10571,28 +10571,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K138">
         <v>0.5833333333333334</v>
@@ -10621,25 +10621,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>366</v>
@@ -10692,7 +10692,7 @@
         <v>11</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K140">
         <v>0.5813953488372093</v>
@@ -10727,13 +10727,13 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E141">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F141">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
@@ -10771,25 +10771,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>367</v>
@@ -10821,25 +10821,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D143">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E143">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F143">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>368</v>
@@ -10871,25 +10871,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E144">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F144">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>369</v>
@@ -10924,22 +10924,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E145">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F145">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>370</v>
@@ -10977,13 +10977,13 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E146">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F146">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
@@ -11021,25 +11021,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.07692307692307693</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D147">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="E147">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F147">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>75</v>
@@ -11071,25 +11071,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E148">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F148">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>372</v>
@@ -11121,28 +11121,28 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.07563025210084033</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C149">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="E149">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F149">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K149">
         <v>0.5625</v>
@@ -11177,13 +11177,13 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="E150">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="F150">
-        <v>0.11</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
@@ -11227,22 +11227,22 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>13</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K151">
         <v>0.5600000000000001</v>
@@ -11277,13 +11277,13 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="E152">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="F152">
-        <v>0.01000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
@@ -11327,16 +11327,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>13</v>
@@ -11371,25 +11371,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154">
         <v>6</v>
       </c>
       <c r="E154">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F154">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>92</v>
@@ -11421,28 +11421,28 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K155">
         <v>0.5454545454545454</v>
@@ -11471,25 +11471,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F156">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>376</v>
@@ -11524,22 +11524,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>377</v>
@@ -11577,13 +11577,13 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E158">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F158">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
@@ -11627,13 +11627,13 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E159">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F159">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
@@ -11677,22 +11677,22 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
         <v>14</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K160">
         <v>0.5333333333333333</v>
@@ -11721,25 +11721,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>380</v>
@@ -11771,25 +11771,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>381</v>
@@ -11827,22 +11827,22 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
         <v>15</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K163">
         <v>0.5128205128205128</v>
@@ -11871,25 +11871,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E164">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F164">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>382</v>
@@ -11921,25 +11921,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E165">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F165">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>383</v>
@@ -11971,25 +11971,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E166">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="F166">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>384</v>
@@ -12027,13 +12027,13 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E167">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F167">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
@@ -12077,13 +12077,13 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E168">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F168">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
@@ -12121,25 +12121,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E169">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F169">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>387</v>
@@ -12171,25 +12171,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E170">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F170">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>388</v>
@@ -12221,25 +12221,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>79</v>
@@ -12271,25 +12271,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>389</v>
@@ -12321,13 +12321,13 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>390</v>
@@ -12471,25 +12471,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>393</v>
@@ -12521,25 +12521,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>394</v>
@@ -12577,13 +12577,13 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F178">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
@@ -12627,13 +12627,13 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F179">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
@@ -12677,13 +12677,13 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E180">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F180">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
@@ -12721,7 +12721,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -12739,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>398</v>
@@ -12771,25 +12771,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E182">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F182">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>399</v>
@@ -12821,13 +12821,13 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.04761904761904762</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D183">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E183">
         <v>0.75</v>
@@ -12839,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>400</v>
@@ -12871,25 +12871,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>401</v>
@@ -12921,28 +12921,28 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.04705882352941176</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185">
         <v>4</v>
       </c>
-      <c r="D185">
-        <v>16</v>
-      </c>
       <c r="E185">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F185">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K185">
         <v>0.4827586206896552</v>
@@ -12971,7 +12971,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>86</v>
@@ -13021,13 +13021,13 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E187">
         <v>0.5</v>
@@ -13039,10 +13039,10 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K187">
         <v>0.4814814814814815</v>
@@ -13071,7 +13071,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -13089,10 +13089,10 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K188">
         <v>0.4666666666666667</v>
@@ -13127,13 +13127,13 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E189">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F189">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
@@ -13171,25 +13171,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>85</v>
@@ -13221,25 +13221,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>403</v>
@@ -13271,25 +13271,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>404</v>
@@ -13321,7 +13321,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.04</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -13339,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>405</v>
@@ -13371,28 +13371,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K194">
         <v>0.4545454545454545</v>
@@ -13424,22 +13424,22 @@
         <v>0.03703703703703703</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>406</v>
@@ -13477,22 +13477,22 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
         <v>26</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K196">
         <v>0.45</v>
@@ -13521,25 +13521,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>407</v>
@@ -13571,7 +13571,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.03703703703703703</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -13589,7 +13589,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>408</v>
@@ -13621,25 +13621,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>409</v>
@@ -13671,25 +13671,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>410</v>
@@ -13721,25 +13721,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="E201">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>411</v>
@@ -13771,28 +13771,28 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K202">
         <v>0.4411764705882353</v>
@@ -13827,16 +13827,16 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
         <v>30</v>
@@ -13871,7 +13871,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13889,10 +13889,10 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K204">
         <v>0.4285714285714285</v>
@@ -13921,25 +13921,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.03225806451612903</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D205">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E205">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F205">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>91</v>
@@ -13971,25 +13971,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>413</v>
@@ -14021,25 +14021,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.03061224489795918</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E207">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F207">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>414</v>
@@ -14121,13 +14121,13 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E209">
         <v>0.96</v>
@@ -14139,7 +14139,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>416</v>
@@ -14171,25 +14171,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0303030303030303</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E210">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>417</v>
@@ -14221,25 +14221,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02941176470588235</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D211">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E211">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F211">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>418</v>
@@ -14271,25 +14271,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02777777777777778</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>419</v>
@@ -14321,25 +14321,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E213">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F213">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>420</v>
@@ -14371,25 +14371,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>421</v>
@@ -14421,25 +14421,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E215">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F215">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>422</v>
@@ -14471,25 +14471,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>423</v>
@@ -14521,25 +14521,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E217">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>424</v>
@@ -14568,28 +14568,28 @@
     </row>
     <row r="218" spans="1:17">
       <c r="A218" s="1" t="s">
-        <v>223</v>
+        <v>6</v>
       </c>
       <c r="B218">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E218">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F218">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>425</v>
@@ -14618,28 +14618,28 @@
     </row>
     <row r="219" spans="1:17">
       <c r="A219" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B219">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>426</v>
@@ -14668,31 +14668,31 @@
     </row>
     <row r="220" spans="1:17">
       <c r="A220" s="1" t="s">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="B220">
-        <v>0.02325581395348837</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E220">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F220">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K220">
         <v>0.4074074074074074</v>
@@ -14721,25 +14721,25 @@
         <v>225</v>
       </c>
       <c r="B221">
-        <v>0.02222222222222222</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E221">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F221">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>427</v>
@@ -14771,25 +14771,25 @@
         <v>226</v>
       </c>
       <c r="B222">
-        <v>0.02173913043478261</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E222">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F222">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>428</v>
@@ -14821,25 +14821,25 @@
         <v>227</v>
       </c>
       <c r="B223">
-        <v>0.02150537634408602</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D223">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="E223">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F223">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>429</v>
@@ -14871,25 +14871,25 @@
         <v>228</v>
       </c>
       <c r="B224">
-        <v>0.02040816326530612</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E224">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>76</v>
@@ -14921,25 +14921,25 @@
         <v>229</v>
       </c>
       <c r="B225">
-        <v>0.01973684210526316</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="C225">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D225">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="E225">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F225">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>298</v>
+        <v>155</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>430</v>
@@ -14971,25 +14971,25 @@
         <v>230</v>
       </c>
       <c r="B226">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>431</v>
@@ -15021,25 +15021,25 @@
         <v>231</v>
       </c>
       <c r="B227">
-        <v>0.0189873417721519</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>228</v>
+        <v>11</v>
       </c>
       <c r="E227">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F227">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>74</v>
@@ -15074,22 +15074,22 @@
         <v>0.01886792452830189</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E228">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F228">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>432</v>
@@ -15121,28 +15121,28 @@
         <v>233</v>
       </c>
       <c r="B229">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E229">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F229">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K229">
         <v>0.391304347826087</v>
@@ -15171,25 +15171,25 @@
         <v>234</v>
       </c>
       <c r="B230">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D230">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E230">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F230">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>433</v>
@@ -15221,25 +15221,25 @@
         <v>235</v>
       </c>
       <c r="B231">
-        <v>0.01851851851851852</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E231">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F231">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>434</v>
@@ -15271,25 +15271,25 @@
         <v>236</v>
       </c>
       <c r="B232">
-        <v>0.01818181818181818</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E232">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F232">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>435</v>
@@ -15321,25 +15321,25 @@
         <v>237</v>
       </c>
       <c r="B233">
-        <v>0.01769911504424779</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E233">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F233">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>436</v>
@@ -15371,25 +15371,25 @@
         <v>238</v>
       </c>
       <c r="B234">
-        <v>0.01754385964912281</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E234">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F234">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>437</v>
@@ -15421,13 +15421,13 @@
         <v>239</v>
       </c>
       <c r="B235">
-        <v>0.01754385964912281</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D235">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E235">
         <v>0.91</v>
@@ -15439,10 +15439,10 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K235">
         <v>0.3846153846153846</v>
@@ -15471,25 +15471,25 @@
         <v>240</v>
       </c>
       <c r="B236">
-        <v>0.01639344262295082</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E236">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F236">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>438</v>
@@ -15521,25 +15521,25 @@
         <v>241</v>
       </c>
       <c r="B237">
-        <v>0.01612903225806452</v>
+        <v>0.015625</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E237">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F237">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>439</v>
@@ -15571,25 +15571,25 @@
         <v>242</v>
       </c>
       <c r="B238">
-        <v>0.01612903225806452</v>
+        <v>0.015625</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E238">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F238">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>440</v>
@@ -15627,13 +15627,13 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E239">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F239">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
@@ -15642,7 +15642,7 @@
         <v>63</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K239">
         <v>0.3809523809523809</v>
@@ -15671,25 +15671,25 @@
         <v>244</v>
       </c>
       <c r="B240">
-        <v>0.015625</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E240">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F240">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>441</v>
@@ -15721,25 +15721,25 @@
         <v>245</v>
       </c>
       <c r="B241">
-        <v>0.015625</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E241">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F241">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>442</v>
@@ -15771,25 +15771,25 @@
         <v>246</v>
       </c>
       <c r="B242">
-        <v>0.01492537313432836</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E242">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F242">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>443</v>
@@ -15821,25 +15821,25 @@
         <v>247</v>
       </c>
       <c r="B243">
-        <v>0.01351351351351351</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E243">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>444</v>
@@ -15871,25 +15871,25 @@
         <v>248</v>
       </c>
       <c r="B244">
-        <v>0.01298701298701299</v>
+        <v>0.0125</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>445</v>
@@ -15921,25 +15921,25 @@
         <v>249</v>
       </c>
       <c r="B245">
-        <v>0.01298701298701299</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>446</v>
@@ -15971,25 +15971,25 @@
         <v>250</v>
       </c>
       <c r="B246">
-        <v>0.0125</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>447</v>
@@ -16021,25 +16021,25 @@
         <v>251</v>
       </c>
       <c r="B247">
-        <v>0.01234567901234568</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E247">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F247">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>448</v>
@@ -16071,28 +16071,28 @@
         <v>252</v>
       </c>
       <c r="B248">
-        <v>0.01204819277108434</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E248">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F248">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K248">
         <v>0.3658536585365854</v>
@@ -16121,25 +16121,25 @@
         <v>253</v>
       </c>
       <c r="B249">
-        <v>0.0119047619047619</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E249">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F249">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>449</v>
@@ -16171,25 +16171,25 @@
         <v>254</v>
       </c>
       <c r="B250">
-        <v>0.01162790697674419</v>
+        <v>0.01</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E250">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H250">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>450</v>
@@ -16221,25 +16221,25 @@
         <v>255</v>
       </c>
       <c r="B251">
-        <v>0.01041666666666667</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>451</v>
@@ -16271,25 +16271,25 @@
         <v>256</v>
       </c>
       <c r="B252">
-        <v>0.01</v>
+        <v>0.009771986970684038</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F252">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252">
-        <v>99</v>
+        <v>304</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>452</v>
@@ -16321,25 +16321,25 @@
         <v>257</v>
       </c>
       <c r="B253">
-        <v>0.009900990099009901</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>453</v>
@@ -16371,25 +16371,25 @@
         <v>258</v>
       </c>
       <c r="B254">
-        <v>0.009771986970684038</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
         <v>3</v>
       </c>
-      <c r="D254">
-        <v>23</v>
-      </c>
       <c r="E254">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="F254">
-        <v>0.13</v>
+        <v>0.33</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>304</v>
+        <v>105</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>454</v>
@@ -16421,7 +16421,7 @@
         <v>259</v>
       </c>
       <c r="B255">
-        <v>0.009523809523809525</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16439,7 +16439,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>455</v>
@@ -16471,25 +16471,25 @@
         <v>260</v>
       </c>
       <c r="B256">
-        <v>0.009433962264150943</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E256">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F256">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>456</v>
@@ -16521,25 +16521,25 @@
         <v>261</v>
       </c>
       <c r="B257">
-        <v>0.009259259259259259</v>
+        <v>0.008720930232558139</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D257">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="E257">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F257">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>107</v>
+        <v>341</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>457</v>
@@ -16571,25 +16571,25 @@
         <v>262</v>
       </c>
       <c r="B258">
-        <v>0.008849557522123894</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E258">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F258">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>458</v>
@@ -16621,25 +16621,25 @@
         <v>263</v>
       </c>
       <c r="B259">
-        <v>0.008720930232558139</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C259">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="E259">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F259">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>341</v>
+        <v>123</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>459</v>
@@ -16671,25 +16671,25 @@
         <v>264</v>
       </c>
       <c r="B260">
-        <v>0.008474576271186441</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E260">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="F260">
-        <v>0.02000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>460</v>
@@ -16721,25 +16721,25 @@
         <v>265</v>
       </c>
       <c r="B261">
-        <v>0.008064516129032258</v>
+        <v>0.006825938566552901</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D261">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E261">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>461</v>
@@ -16771,28 +16771,28 @@
         <v>266</v>
       </c>
       <c r="B262">
-        <v>0.007692307692307693</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E262">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F262">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K262">
         <v>0.34375</v>
@@ -16821,28 +16821,28 @@
         <v>267</v>
       </c>
       <c r="B263">
-        <v>0.006825938566552901</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263">
-        <v>291</v>
+        <v>167</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K263">
         <v>0.3409090909090909</v>
@@ -16871,25 +16871,25 @@
         <v>268</v>
       </c>
       <c r="B264">
-        <v>0.006711409395973154</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>462</v>
@@ -16921,25 +16921,25 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>0.005952380952380952</v>
+        <v>0.005219206680584551</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D265">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E265">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F265">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>167</v>
+        <v>953</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>463</v>
@@ -16971,25 +16971,25 @@
         <v>270</v>
       </c>
       <c r="B266">
-        <v>0.005681818181818182</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E266">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F266">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>464</v>
@@ -17021,25 +17021,25 @@
         <v>271</v>
       </c>
       <c r="B267">
-        <v>0.005219206680584551</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="C267">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E267">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F267">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267">
-        <v>953</v>
+        <v>235</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>71</v>
@@ -17071,28 +17071,28 @@
         <v>272</v>
       </c>
       <c r="B268">
-        <v>0.004444444444444444</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E268">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F268">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K268">
         <v>0.3333333333333333</v>
@@ -17121,28 +17121,28 @@
         <v>273</v>
       </c>
       <c r="B269">
-        <v>0.00423728813559322</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269">
-        <v>235</v>
+        <v>828</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K269">
         <v>0.3333333333333333</v>
@@ -17171,25 +17171,25 @@
         <v>274</v>
       </c>
       <c r="B270">
-        <v>0.003610108303249098</v>
+        <v>0.003546099290780142</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E270">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F270">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>465</v>
@@ -17221,25 +17221,25 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>0.003610108303249098</v>
+        <v>0.003179650238473768</v>
       </c>
       <c r="C271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D271">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E271">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F271">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>828</v>
+        <v>627</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>466</v>
@@ -17271,25 +17271,25 @@
         <v>276</v>
       </c>
       <c r="B272">
-        <v>0.003546099290780142</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D272">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E272">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F272">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>281</v>
+        <v>829</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>467</v>
@@ -17321,25 +17321,25 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>0.003179650238473768</v>
+        <v>0.002362470469119136</v>
       </c>
       <c r="C273">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D273">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="E273">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F273">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>627</v>
+        <v>2956</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>468</v>
@@ -17371,25 +17371,25 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>0.002406738868832732</v>
+        <v>0.002350176263219741</v>
       </c>
       <c r="C274">
         <v>2</v>
       </c>
       <c r="D274">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E274">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F274">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>829</v>
+        <v>849</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>469</v>
@@ -17421,25 +17421,25 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>0.002362470469119136</v>
+        <v>0.001920614596670935</v>
       </c>
       <c r="C275">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D275">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="E275">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F275">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>2956</v>
+        <v>3118</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>470</v>
@@ -17471,25 +17471,25 @@
         <v>280</v>
       </c>
       <c r="B276">
-        <v>0.002350176263219741</v>
+        <v>0.001773049645390071</v>
       </c>
       <c r="C276">
         <v>2</v>
       </c>
       <c r="D276">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E276">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F276">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>849</v>
+        <v>1126</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>471</v>
@@ -17521,25 +17521,25 @@
         <v>281</v>
       </c>
       <c r="B277">
-        <v>0.001920614596670935</v>
+        <v>0.0015</v>
       </c>
       <c r="C277">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D277">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="E277">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F277">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>3118</v>
+        <v>1997</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>90</v>
@@ -17567,30 +17567,6 @@
       </c>
     </row>
     <row r="278" spans="1:17">
-      <c r="A278" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B278">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="C278">
-        <v>2</v>
-      </c>
-      <c r="D278">
-        <v>35</v>
-      </c>
-      <c r="E278">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F278">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G278" t="b">
-        <v>1</v>
-      </c>
-      <c r="H278">
-        <v>1126</v>
-      </c>
       <c r="J278" s="1" t="s">
         <v>472</v>
       </c>
@@ -17617,30 +17593,6 @@
       </c>
     </row>
     <row r="279" spans="1:17">
-      <c r="A279" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B279">
-        <v>0.0015</v>
-      </c>
-      <c r="C279">
-        <v>3</v>
-      </c>
-      <c r="D279">
-        <v>146</v>
-      </c>
-      <c r="E279">
-        <v>0.98</v>
-      </c>
-      <c r="F279">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G279" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279">
-        <v>1997</v>
-      </c>
       <c r="J279" s="1" t="s">
         <v>473</v>
       </c>
@@ -17668,7 +17620,7 @@
     </row>
     <row r="280" spans="1:17">
       <c r="J280" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K280">
         <v>0.3333333333333333</v>
@@ -17928,7 +17880,7 @@
     </row>
     <row r="290" spans="10:17">
       <c r="J290" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K290">
         <v>0.3076923076923077</v>
@@ -17980,7 +17932,7 @@
     </row>
     <row r="292" spans="10:17">
       <c r="J292" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K292">
         <v>0.3043478260869565</v>
@@ -18006,7 +17958,7 @@
     </row>
     <row r="293" spans="10:17">
       <c r="J293" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K293">
         <v>0.3043478260869565</v>
@@ -18136,7 +18088,7 @@
     </row>
     <row r="298" spans="10:17">
       <c r="J298" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K298">
         <v>0.2962962962962963</v>
@@ -18214,7 +18166,7 @@
     </row>
     <row r="301" spans="10:17">
       <c r="J301" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K301">
         <v>0.2941176470588235</v>
@@ -18318,7 +18270,7 @@
     </row>
     <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K305">
         <v>0.2884615384615384</v>
@@ -18526,7 +18478,7 @@
     </row>
     <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K313">
         <v>0.2857142857142857</v>
@@ -18812,7 +18764,7 @@
     </row>
     <row r="324" spans="10:17">
       <c r="J324" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K324">
         <v>0.2777777777777778</v>
@@ -18838,7 +18790,7 @@
     </row>
     <row r="325" spans="10:17">
       <c r="J325" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K325">
         <v>0.2777777777777778</v>
@@ -18864,7 +18816,7 @@
     </row>
     <row r="326" spans="10:17">
       <c r="J326" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K326">
         <v>0.2777777777777778</v>
@@ -18890,7 +18842,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K327">
         <v>0.2766990291262136</v>
@@ -19020,7 +18972,7 @@
     </row>
     <row r="332" spans="10:17">
       <c r="J332" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K332">
         <v>0.2727272727272727</v>
@@ -19176,7 +19128,7 @@
     </row>
     <row r="338" spans="10:17">
       <c r="J338" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K338">
         <v>0.2666666666666667</v>
@@ -19228,7 +19180,7 @@
     </row>
     <row r="340" spans="10:17">
       <c r="J340" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K340">
         <v>0.2641509433962264</v>
@@ -19254,7 +19206,7 @@
     </row>
     <row r="341" spans="10:17">
       <c r="J341" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K341">
         <v>0.2638888888888889</v>
@@ -19332,7 +19284,7 @@
     </row>
     <row r="344" spans="10:17">
       <c r="J344" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K344">
         <v>0.2594936708860759</v>
@@ -19384,7 +19336,7 @@
     </row>
     <row r="346" spans="10:17">
       <c r="J346" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K346">
         <v>0.2542372881355932</v>
@@ -20112,7 +20064,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K374">
         <v>0.2307692307692308</v>
@@ -20788,7 +20740,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K400">
         <v>0.2115384615384615</v>
@@ -20892,7 +20844,7 @@
     </row>
     <row r="404" spans="10:17">
       <c r="J404" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K404">
         <v>0.2</v>
@@ -21022,7 +20974,7 @@
     </row>
     <row r="409" spans="10:17">
       <c r="J409" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K409">
         <v>0.2</v>
@@ -21048,7 +21000,7 @@
     </row>
     <row r="410" spans="10:17">
       <c r="J410" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K410">
         <v>0.2</v>
@@ -21360,7 +21312,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K422">
         <v>0.1923076923076923</v>
@@ -21594,7 +21546,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K431">
         <v>0.1851851851851852</v>
@@ -21724,7 +21676,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K436">
         <v>0.1818181818181818</v>
@@ -21906,7 +21858,7 @@
     </row>
     <row r="443" spans="10:17">
       <c r="J443" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K443">
         <v>0.1810344827586207</v>
@@ -21932,7 +21884,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K444">
         <v>0.18</v>
@@ -21958,7 +21910,7 @@
     </row>
     <row r="445" spans="10:17">
       <c r="J445" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K445">
         <v>0.1785714285714286</v>
@@ -22036,7 +21988,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K448">
         <v>0.1764705882352941</v>
@@ -22114,7 +22066,7 @@
     </row>
     <row r="451" spans="10:17">
       <c r="J451" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K451">
         <v>0.1743341404358353</v>
@@ -22166,7 +22118,7 @@
     </row>
     <row r="453" spans="10:17">
       <c r="J453" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K453">
         <v>0.1739130434782609</v>
@@ -23362,7 +23314,7 @@
     </row>
     <row r="499" spans="10:17">
       <c r="J499" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K499">
         <v>0.1612903225806452</v>
@@ -23440,7 +23392,7 @@
     </row>
     <row r="502" spans="10:17">
       <c r="J502" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K502">
         <v>0.1578947368421053</v>
@@ -23492,7 +23444,7 @@
     </row>
     <row r="504" spans="10:17">
       <c r="J504" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K504">
         <v>0.1549295774647887</v>
@@ -23830,7 +23782,7 @@
     </row>
     <row r="517" spans="10:17">
       <c r="J517" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K517">
         <v>0.1515151515151515</v>
@@ -23856,7 +23808,7 @@
     </row>
     <row r="518" spans="10:17">
       <c r="J518" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K518">
         <v>0.1515151515151515</v>
@@ -23986,7 +23938,7 @@
     </row>
     <row r="523" spans="10:17">
       <c r="J523" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K523">
         <v>0.148936170212766</v>
@@ -24064,7 +24016,7 @@
     </row>
     <row r="526" spans="10:17">
       <c r="J526" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K526">
         <v>0.1475409836065574</v>
@@ -24142,7 +24094,7 @@
     </row>
     <row r="529" spans="10:17">
       <c r="J529" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K529">
         <v>0.1441441441441441</v>
@@ -24246,7 +24198,7 @@
     </row>
     <row r="533" spans="10:17">
       <c r="J533" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K533">
         <v>0.1428571428571428</v>
@@ -24766,7 +24718,7 @@
     </row>
     <row r="553" spans="10:17">
       <c r="J553" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K553">
         <v>0.1428571428571428</v>
@@ -25000,7 +24952,7 @@
     </row>
     <row r="562" spans="10:17">
       <c r="J562" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K562">
         <v>0.1428571428571428</v>
@@ -25234,7 +25186,7 @@
     </row>
     <row r="571" spans="10:17">
       <c r="J571" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K571">
         <v>0.1428571428571428</v>
@@ -25312,7 +25264,7 @@
     </row>
     <row r="574" spans="10:17">
       <c r="J574" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K574">
         <v>0.1408450704225352</v>
@@ -25364,7 +25316,7 @@
     </row>
     <row r="576" spans="10:17">
       <c r="J576" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K576">
         <v>0.1367924528301887</v>
@@ -25390,7 +25342,7 @@
     </row>
     <row r="577" spans="10:17">
       <c r="J577" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K577">
         <v>0.1363636363636364</v>
@@ -25416,7 +25368,7 @@
     </row>
     <row r="578" spans="10:17">
       <c r="J578" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K578">
         <v>0.1363636363636364</v>
@@ -25676,7 +25628,7 @@
     </row>
     <row r="588" spans="10:17">
       <c r="J588" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K588">
         <v>0.1304347826086956</v>
@@ -25702,7 +25654,7 @@
     </row>
     <row r="589" spans="10:17">
       <c r="J589" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K589">
         <v>0.1304347826086956</v>
@@ -25780,7 +25732,7 @@
     </row>
     <row r="592" spans="10:17">
       <c r="J592" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K592">
         <v>0.1290322580645161</v>
@@ -25806,7 +25758,7 @@
     </row>
     <row r="593" spans="10:17">
       <c r="J593" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K593">
         <v>0.1290322580645161</v>
@@ -26950,7 +26902,7 @@
     </row>
     <row r="637" spans="10:17">
       <c r="J637" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K637">
         <v>0.1176470588235294</v>
@@ -27054,7 +27006,7 @@
     </row>
     <row r="641" spans="10:17">
       <c r="J641" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K641">
         <v>0.1176470588235294</v>
@@ -27132,7 +27084,7 @@
     </row>
     <row r="644" spans="10:17">
       <c r="J644" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K644">
         <v>0.1153846153846154</v>
@@ -27236,7 +27188,7 @@
     </row>
     <row r="648" spans="10:17">
       <c r="J648" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K648">
         <v>0.112</v>
@@ -28016,7 +27968,7 @@
     </row>
     <row r="678" spans="10:17">
       <c r="J678" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K678">
         <v>0.1052631578947368</v>
@@ -28042,7 +27994,7 @@
     </row>
     <row r="679" spans="10:17">
       <c r="J679" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K679">
         <v>0.1052631578947368</v>
@@ -28302,7 +28254,7 @@
     </row>
     <row r="689" spans="10:17">
       <c r="J689" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K689">
         <v>0.1</v>
@@ -28744,7 +28696,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K706">
         <v>0.09677419354838709</v>
@@ -28848,7 +28800,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K710">
         <v>0.09523809523809523</v>
@@ -28926,7 +28878,7 @@
     </row>
     <row r="713" spans="10:17">
       <c r="J713" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K713">
         <v>0.09090909090909091</v>
@@ -29264,7 +29216,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K726">
         <v>0.08823529411764706</v>
@@ -29342,7 +29294,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K729">
         <v>0.08791208791208792</v>
@@ -29368,7 +29320,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K730">
         <v>0.08771929824561403</v>
@@ -29498,7 +29450,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K735">
         <v>0.08469055374592833</v>
@@ -30356,7 +30308,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K768">
         <v>0.07317073170731707</v>
@@ -30720,7 +30672,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K782">
         <v>0.0707070707070707</v>
@@ -30798,7 +30750,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K785">
         <v>0.06682242990654205</v>
@@ -30902,7 +30854,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K789">
         <v>0.06666666666666667</v>
@@ -31370,7 +31322,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K807">
         <v>0.06185567010309279</v>
@@ -31396,7 +31348,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K808">
         <v>0.06172839506172839</v>
@@ -31890,7 +31842,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K827">
         <v>0.0583941605839416</v>
@@ -31968,7 +31920,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K830">
         <v>0.05561735261401557</v>
@@ -32566,7 +32518,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K853">
         <v>0.05084745762711865</v>
@@ -32748,7 +32700,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K860">
         <v>0.05</v>
@@ -32774,7 +32726,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K861">
         <v>0.04891304347826087</v>
@@ -33008,7 +32960,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K870">
         <v>0.04645161290322581</v>
@@ -33346,7 +33298,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K883">
         <v>0.04347826086956522</v>
@@ -33502,7 +33454,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K889">
         <v>0.0425531914893617</v>
@@ -33554,7 +33506,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K891">
         <v>0.04166666666666666</v>
@@ -33580,7 +33532,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K892">
         <v>0.04161849710982659</v>
@@ -33918,7 +33870,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K905">
         <v>0.0390625</v>
@@ -34074,7 +34026,7 @@
     </row>
     <row r="911" spans="10:17">
       <c r="J911" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K911">
         <v>0.03703703703703703</v>
@@ -34204,7 +34156,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K916">
         <v>0.03603603603603604</v>
@@ -34620,7 +34572,7 @@
     </row>
     <row r="932" spans="10:17">
       <c r="J932" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K932">
         <v>0.03409090909090909</v>
@@ -34724,7 +34676,7 @@
     </row>
     <row r="936" spans="10:17">
       <c r="J936" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K936">
         <v>0.03240740740740741</v>
@@ -34958,7 +34910,7 @@
     </row>
     <row r="945" spans="10:17">
       <c r="J945" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K945">
         <v>0.03076923076923077</v>
@@ -34984,7 +34936,7 @@
     </row>
     <row r="946" spans="10:17">
       <c r="J946" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K946">
         <v>0.0303030303030303</v>
@@ -35010,7 +34962,7 @@
     </row>
     <row r="947" spans="10:17">
       <c r="J947" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K947">
         <v>0.0303030303030303</v>
@@ -35322,7 +35274,7 @@
     </row>
     <row r="959" spans="10:17">
       <c r="J959" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K959">
         <v>0.02847282139775669</v>
@@ -35452,7 +35404,7 @@
     </row>
     <row r="964" spans="10:17">
       <c r="J964" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K964">
         <v>0.02666666666666667</v>
@@ -35686,7 +35638,7 @@
     </row>
     <row r="973" spans="10:17">
       <c r="J973" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K973">
         <v>0.02410015649452269</v>
@@ -36232,7 +36184,7 @@
     </row>
     <row r="994" spans="10:17">
       <c r="J994" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K994">
         <v>0.01869158878504673</v>
@@ -36362,7 +36314,7 @@
     </row>
     <row r="999" spans="10:17">
       <c r="J999" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K999">
         <v>0.01764705882352941</v>
@@ -36648,7 +36600,7 @@
     </row>
     <row r="1010" spans="10:17">
       <c r="J1010" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K1010">
         <v>0.01428571428571429</v>
@@ -36908,7 +36860,7 @@
     </row>
     <row r="1020" spans="10:17">
       <c r="J1020" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K1020">
         <v>0.01234567901234568</v>
@@ -37038,7 +36990,7 @@
     </row>
     <row r="1025" spans="10:17">
       <c r="J1025" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K1025">
         <v>0.01038421599169263</v>
